--- a/Running projects/Gul Ahmed Energy Limited/PO/020- Purchase order- for Copper pipe and fittings.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/PO/020- Purchase order- for Copper pipe and fittings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55799ADF-8F30-42C4-A6A1-7E59ED797748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396F69D-5716-4E13-847A-2D04B5354924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,6 +426,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -455,15 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,7 +1104,7 @@
   <dimension ref="A9:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
     <col min="3" max="3" width="10.42578125" style="27" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="30" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="10" customWidth="1"/>
@@ -1154,24 +1154,24 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -1183,30 +1183,30 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1241,7 +1241,7 @@
       <c r="C24" s="28"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="41"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="24"/>
       <c r="I24" s="10">
         <f>11500*50</f>
@@ -1264,12 +1264,12 @@
       <c r="E25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="41">
-        <v>1832</v>
+      <c r="F25" s="31">
+        <v>1931</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" ref="G25:G36" si="0">F25*D25</f>
-        <v>36640</v>
+        <v>38620</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
       <c r="E26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="31">
         <v>842</v>
       </c>
       <c r="G26" s="20">
@@ -1304,7 +1304,7 @@
       <c r="C27" s="28"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="41"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="24"/>
       <c r="I27" s="10">
         <f>11500*50</f>
@@ -1327,7 +1327,7 @@
       <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="32">
         <v>320</v>
       </c>
       <c r="G28" s="20">
@@ -1354,7 +1354,7 @@
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="32">
         <v>90</v>
       </c>
       <c r="G29" s="20">
@@ -1381,7 +1381,7 @@
       <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="32">
         <v>120</v>
       </c>
       <c r="G30" s="20">
@@ -1408,7 +1408,7 @@
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="32">
         <v>460</v>
       </c>
       <c r="G31" s="20">
@@ -1432,7 +1432,7 @@
       <c r="E32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="32">
         <v>130</v>
       </c>
       <c r="G32" s="20">
@@ -1454,7 +1454,7 @@
       <c r="E33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="32">
         <v>6200</v>
       </c>
       <c r="G33" s="20">
@@ -1473,7 +1473,7 @@
       <c r="C34" s="28"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="41"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="24"/>
       <c r="I34" s="10">
         <f>11500*50</f>
@@ -1496,7 +1496,7 @@
       <c r="E35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="31">
         <v>545</v>
       </c>
       <c r="G35" s="20">
@@ -1520,7 +1520,7 @@
       <c r="E36" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="31">
         <v>735</v>
       </c>
       <c r="G36" s="20">
@@ -1532,61 +1532,61 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="14">
         <f>SUM(G25:G36)</f>
-        <v>66780</v>
+        <v>68760</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="15">
         <f>G37*5%</f>
-        <v>3339</v>
+        <v>3438</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="16">
         <f>G37-G38</f>
-        <v>63441</v>
+        <v>65322</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
